--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632501A-351A-4285-99FA-A43819AA6C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -251,30 +253,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L8201維護 : 金額合計超過</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L8201維護 : 次數 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>洗錢樣態二次數</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">L8201維護 : 單筆起始金額 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">洗錢樣態二單筆起始金額 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">L8201維護 : 單筆迄止金額 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">洗錢樣態二單筆迄止金額 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -287,26 +273,38 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>L8201維護 : 金額合計超過</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L8201維護 : 統計期間天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FactorDays3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>樣態三統計期間天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8201維護：金額合計超過</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L8201維護：次數 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L8201維護：單筆起始金額 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L8201維護：單筆迄止金額 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8201維護：統計期間天數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -558,7 +556,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,6 +647,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -684,6 +699,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>33</v>
@@ -1027,19 +1059,19 @@
         <v>2</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A20" si="0">A10+1</f>
+        <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>33</v>
@@ -1049,7 +1081,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1061,7 +1093,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>33</v>
@@ -1073,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>33</v>
@@ -1097,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,7 +1141,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>40</v>
@@ -1121,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1143,7 +1175,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1152,10 +1184,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>40</v>
@@ -1165,7 +1197,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,12 +1403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
